--- a/data/3.meta_data/matrices/0095a.xlsx
+++ b/data/3.meta_data/matrices/0095a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,35 +365,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>servicelearning</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>selfmanagement</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>selfmanagement</t>
+          <t>socialengagement</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>socialengagement</t>
+          <t>cooperation</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cooperation</t>
+          <t>emotionalresilience</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>emotionalresilience</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>innovation</t>
         </is>
@@ -403,201 +398,160 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>-0.05125524187103325</v>
+      </c>
       <c r="C2">
+        <v>0.2646806101192998</v>
+      </c>
+      <c r="D2">
+        <v>0.07878029097361108</v>
+      </c>
+      <c r="E2">
+        <v>0.1666545203436967</v>
+      </c>
+      <c r="F2">
+        <v>0.1772218757143176</v>
+      </c>
+      <c r="G2">
+        <v>0.115134156294775</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>-0.05125524187103325</v>
       </c>
-      <c r="D2">
-        <v>0.2646806101192998</v>
-      </c>
-      <c r="E2">
-        <v>0.07878029097361108</v>
-      </c>
-      <c r="F2">
-        <v>0.1666545203436967</v>
-      </c>
-      <c r="G2">
-        <v>0.1772218757143176</v>
-      </c>
-      <c r="H2">
-        <v>0.115134156294775</v>
-      </c>
-    </row>
-    <row r="3">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-0.2171666181505246</v>
+        <v>0.04455123620056217</v>
       </c>
       <c r="D3">
-        <v>-0.2201882407608325</v>
+        <v>0.02259557439649528</v>
       </c>
       <c r="E3">
-        <v>-0.1684221871429928</v>
+        <v>0.1418991528525441</v>
       </c>
       <c r="F3">
-        <v>-0.2354153654939146</v>
+        <v>-0.1812978912538156</v>
       </c>
       <c r="G3">
-        <v>-0.2175434822206017</v>
-      </c>
-      <c r="H3">
-        <v>-0.2231435842923533</v>
+        <v>0.07530718858853158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.05125524187103325</v>
+        <v>0.2646806101192998</v>
       </c>
       <c r="B4">
-        <v>-0.2171666181505246</v>
+        <v>0.04455123620056217</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.04455123620056217</v>
+        <v>0.3330224193081219</v>
       </c>
       <c r="E4">
-        <v>0.02259557439649528</v>
+        <v>0.4596512270598077</v>
       </c>
       <c r="F4">
-        <v>0.1418991528525441</v>
+        <v>0.5320576831334216</v>
       </c>
       <c r="G4">
-        <v>-0.1812978912538156</v>
-      </c>
-      <c r="H4">
-        <v>0.07530718858853158</v>
+        <v>0.3242378668410512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.2646806101192998</v>
+        <v>0.07878029097361108</v>
       </c>
       <c r="B5">
-        <v>-0.2201882407608325</v>
+        <v>0.02259557439649528</v>
       </c>
       <c r="C5">
-        <v>0.04455123620056217</v>
+        <v>0.3330224193081219</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.3330224193081219</v>
+        <v>0.4979522039905168</v>
       </c>
       <c r="F5">
-        <v>0.4596512270598077</v>
+        <v>0.3652453106055803</v>
       </c>
       <c r="G5">
-        <v>0.5320576831334216</v>
-      </c>
-      <c r="H5">
-        <v>0.3242378668410512</v>
+        <v>0.387208368782807</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.07878029097361108</v>
+        <v>0.1666545203436967</v>
       </c>
       <c r="B6">
-        <v>-0.1684221871429928</v>
+        <v>0.1418991528525441</v>
       </c>
       <c r="C6">
-        <v>0.02259557439649528</v>
+        <v>0.4596512270598077</v>
       </c>
       <c r="D6">
-        <v>0.3330224193081219</v>
+        <v>0.4979522039905168</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.4979522039905168</v>
+        <v>0.4613724415274998</v>
       </c>
       <c r="G6">
-        <v>0.3652453106055803</v>
-      </c>
-      <c r="H6">
-        <v>0.387208368782807</v>
+        <v>0.4106499312594121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.1666545203436967</v>
+        <v>0.1772218757143176</v>
       </c>
       <c r="B7">
-        <v>-0.2354153654939146</v>
+        <v>-0.1812978912538156</v>
       </c>
       <c r="C7">
-        <v>0.1418991528525441</v>
+        <v>0.5320576831334216</v>
       </c>
       <c r="D7">
-        <v>0.4596512270598077</v>
+        <v>0.3652453106055803</v>
       </c>
       <c r="E7">
-        <v>0.4979522039905168</v>
+        <v>0.4613724415274998</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4613724415274998</v>
-      </c>
-      <c r="H7">
-        <v>0.4106499312594121</v>
+        <v>0.3478894084815676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.1772218757143176</v>
+        <v>0.115134156294775</v>
       </c>
       <c r="B8">
-        <v>-0.2175434822206017</v>
+        <v>0.07530718858853158</v>
       </c>
       <c r="C8">
-        <v>-0.1812978912538156</v>
+        <v>0.3242378668410512</v>
       </c>
       <c r="D8">
-        <v>0.5320576831334216</v>
+        <v>0.387208368782807</v>
       </c>
       <c r="E8">
-        <v>0.3652453106055803</v>
+        <v>0.4106499312594121</v>
       </c>
       <c r="F8">
-        <v>0.4613724415274998</v>
+        <v>0.3478894084815676</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.3478894084815676</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>0.115134156294775</v>
-      </c>
-      <c r="B9">
-        <v>-0.2231435842923533</v>
-      </c>
-      <c r="C9">
-        <v>0.07530718858853158</v>
-      </c>
-      <c r="D9">
-        <v>0.3242378668410512</v>
-      </c>
-      <c r="E9">
-        <v>0.387208368782807</v>
-      </c>
-      <c r="F9">
-        <v>0.4106499312594121</v>
-      </c>
-      <c r="G9">
-        <v>0.3478894084815676</v>
-      </c>
-      <c r="H9">
         <v>1</v>
       </c>
     </row>
